--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1795624.066158174</v>
+        <v>1791318.610580617</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417425.6313448974</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10198424.60959211</v>
+        <v>10198635.24642481</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +676,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>227.9187527607132</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>10.18456372565612</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.9384045057218</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>17.28688718947203</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>213.1810322623003</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>263.7138800015061</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>227.650290238227</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>66.67731766039418</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.837728992230831</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50.25481211980337</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>249.4723535781822</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>285.2133973457377</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>171.4120023616842</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>132.6026661256496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>90.69815015221852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>238.678559685688</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8053789271548</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1749784766143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.74901076264511</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0311623452478</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9058642207981</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>383.6685423175312</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4021710092738</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.82823269715949</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0489563585645</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3090395918921</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478724655842</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5250535492193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.3028503125647</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2933605912193</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.41639999081862</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0422364341347</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4093609706218</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1845243123506</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.8649457293029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>13.74238375877687</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>60.2569068526658</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>108.516367906613</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060555</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>18.16423677622371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814947</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>151.8555862333575</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.9604756260748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>224.7837165195613</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388466</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="E2" t="n">
-        <v>788.4778634388466</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="F2" t="n">
-        <v>522.1002068716687</v>
+        <v>403.946099842952</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7225503044907</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4330,16 +4330,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4348,34 +4348,34 @@
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>670.3237564101299</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>670.3237564101299</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.881140538862</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>314.881140538862</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V3" t="n">
-        <v>652.7312295849117</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W3" t="n">
-        <v>652.7312295849117</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="X3" t="n">
-        <v>652.7312295849117</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>483.0964775589301</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.666471045117</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>189.666471045117</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>189.666471045117</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4497,7 +4497,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4506,34 +4506,34 @@
         <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="V4" t="n">
-        <v>405.0008470676427</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="W4" t="n">
-        <v>405.0008470676427</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="X4" t="n">
-        <v>189.666471045117</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.666471045117</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>646.8597007358178</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>646.8597007358178</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>646.8597007358178</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>646.8597007358178</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>380.4820441686398</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5182313951954</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4573,7 +4573,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4600,19 +4600,19 @@
         <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>646.8597007358178</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W5" t="n">
-        <v>646.8597007358178</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X5" t="n">
-        <v>646.8597007358178</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.8597007358178</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275.4624604776052</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="C6" t="n">
-        <v>275.4624604776052</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D6" t="n">
-        <v>275.4624604776052</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E6" t="n">
-        <v>116.2250054721497</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>116.2250054721497</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4652,19 +4652,19 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>691.074259448092</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>691.074259448092</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>691.074259448092</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>483.2227592425592</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>275.4624604776052</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.4381933466806</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466806</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>596.0762090749377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>596.0762090749377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>596.0762090749377</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>368.0866581769203</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.0866581769203</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.405431550704</v>
+        <v>1503.265459468025</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.405431550704</v>
+        <v>1503.265459468025</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1503.265459468025</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1117.47720686978</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>706.4913020801728</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>290.78508007184</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.3702251467176</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.1757437607434</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2229.499872999218</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526516</v>
+        <v>1876.731217729104</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.544763526516</v>
+        <v>1503.265459468025</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.405431550704</v>
+        <v>1503.265459468025</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.4887579637192</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>506.4581980381371</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>800.9941814716191</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1164.060649945921</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1551.145052418491</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1883.031862405881</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2445.345361789044</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.4415891498739</v>
+        <v>220.1474381347627</v>
       </c>
       <c r="C10" t="n">
-        <v>565.4415891498739</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4415891498739</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="E10" t="n">
-        <v>565.4415891498739</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.63468308380178</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.3850043368928</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>823.8653899904048</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1394.679691249397</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>1139.99520304351</v>
       </c>
       <c r="W10" t="n">
-        <v>793.4311400478913</v>
+        <v>850.5780330065498</v>
       </c>
       <c r="X10" t="n">
-        <v>565.4415891498739</v>
+        <v>622.5884821085325</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.4415891498739</v>
+        <v>401.7959029650024</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.747847446864</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.785330506452</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.519631899702</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.731379301458</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.74547451185</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8006473127037</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.76531551814375</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.21173263691935</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>377.8919112275235</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.294739903929</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.73516030261</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.327574907682</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2949.307003834347</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.490420549532</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4192.191521035114</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4559.825241454985</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.265775907187</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4603.670815540879</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4402.629237414366</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4149.188970524671</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.126083181101</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3465.357427910986</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3091.891669649906</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.347687510986</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3595186577121</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9064893765851</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>619.9720797153338</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7346247098783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2000667367633</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4402980405271</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.76531551814375</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76531551814375</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.309846376622</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.309846376622</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>738.4007820486463</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1335.505420219355</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1962.822286337886</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2514.474867340006</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.046693765828</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.046693765828</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.046693765828</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.815424716773</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.604273613852</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.576119608211</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.424011376468</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.186654648267</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.335154442734</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.57485567778</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.652759194249</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7165762663419</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.5999368540062</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.686843271613</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.7968957737027</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.5998719866125</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.87982116584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.76531551814375</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>173.9372723687385</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.5212620398424</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>825.7851432062814</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1247.652809956955</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1664.924022934749</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.325229908151</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2326.891096275497</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.013457116465</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2378.926184398466</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2196.055238505401</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.449823383561</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.374546300378</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1432.690058094491</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.690058094491</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.690058094491</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.301224024488</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>249.40968992171</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>107.6978587639081</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,22 +5530,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>301.5721730233224</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>154.6822255254121</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>599.6019060180513</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>599.6019060180513</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>452.7119585201409</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>285.5158592350209</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2838.688024723192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2688.571385310856</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2540.658291728463</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2393.768344230552</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,13 +6226,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>335.9629114732377</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3227.225672628157</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C31" t="n">
-        <v>3058.28948970025</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D31" t="n">
-        <v>2908.172850287915</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>2760.259756705521</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>2613.369809207611</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2446.173709922491</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7177,16 +7177,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4507.978318053498</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>4218.903091397696</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V43" t="n">
-        <v>3964.218603191809</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W43" t="n">
-        <v>3674.801433154848</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X43" t="n">
-        <v>3446.811882256831</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.38715940221</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140407</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>210.4772158821397</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.4490126143857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.569396338522381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.71970762279184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>105.2672314396031</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>31.77834493961092</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516633</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>31.71340154579357</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457059909</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>65.54986409393072</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.62417772602001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>900681.9533308957</v>
+        <v>900673.8875232445</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876586.427911813</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>544669.9127392781</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907539</v>
@@ -26340,22 +26340,22 @@
         <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>390680.0076580807</v>
       </c>
       <c r="E3" t="n">
-        <v>506886.0326267339</v>
+        <v>507909.2320606917</v>
       </c>
       <c r="F3" t="n">
-        <v>585.096639048943</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756968</v>
+        <v>95270.23779101811</v>
       </c>
       <c r="M3" t="n">
-        <v>132447.3436061356</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
-        <v>157.2049554776133</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>137930.4104072219</v>
+        <v>138058.0537608927</v>
       </c>
       <c r="E4" t="n">
-        <v>9946.810569855872</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26435,7 +26435,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26459,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
-        <v>101072.4410767592</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-438370.5554677725</v>
+        <v>-438370.5554677723</v>
       </c>
       <c r="C6" t="n">
         <v>241717.4251234204</v>
       </c>
       <c r="D6" t="n">
-        <v>-67793.3519946184</v>
+        <v>-67437.73433626138</v>
       </c>
       <c r="E6" t="n">
-        <v>-73235.3715340709</v>
+        <v>-74502.33066997073</v>
       </c>
       <c r="F6" t="n">
-        <v>433169.184006029</v>
+        <v>433406.9013907208</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450775</v>
+        <v>433406.9013907209</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.2806450778</v>
+        <v>433406.9013907211</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450779</v>
+        <v>433406.9013907209</v>
       </c>
       <c r="J6" t="n">
-        <v>364755.1262259639</v>
+        <v>364407.746971607</v>
       </c>
       <c r="K6" t="n">
-        <v>433754.2806450778</v>
+        <v>433406.9013907207</v>
       </c>
       <c r="L6" t="n">
-        <v>338371.6345075082</v>
+        <v>338136.6635997029</v>
       </c>
       <c r="M6" t="n">
-        <v>301306.9370389424</v>
+        <v>300688.9256952525</v>
       </c>
       <c r="N6" t="n">
-        <v>433597.0756896001</v>
+        <v>433406.9013907211</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.2806450778</v>
+        <v>433406.9013907209</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450779</v>
+        <v>433406.9013907211</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.46794876009</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.1406900856973</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.066443976797</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>319.647445793306</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4030566425508</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5075515815835843</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="E4" t="n">
-        <v>531.4816118767579</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6418441228513529</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27041,13 +27041,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985325</v>
+        <v>376.4268100841915</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767582</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228513529</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767579</v>
+        <v>532.5675980139511</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228513529</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>197.2210666708386</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>23.22941511756932</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778214</v>
       </c>
       <c r="Y3" t="n">
-        <v>37.74429127158254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>187.4322770541217</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>12.52862312673682</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>143.1621657402053</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>86.54334239104099</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>303.0537830180749</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>156.6954546576365</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>85.76790746662007</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>36.78627692449527</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>69.46964427494521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>129.6214718586162</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164524166</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>54.72289787071273</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>47.54863008461635</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.497358587980257</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.29982363915282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>211.9369169631091</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.5814384565898</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.2846274857942</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5244153726951</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.288066161689</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>980.907436249788</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.2430767905593</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.5270366497965</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.6528822177534</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.3234514022151</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.2710588236002</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.06468721888359</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4397886870384204</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.941346153936797</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.40721153933697</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.8927083418972</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.6462339940402</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.2700320742489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>764.995112203062</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>699.8210737395151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>172.935848248494</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.63421474527337</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85568910292946</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935096153905788</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.465925809239506</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9243221948749</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15711433603899</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.3409547132331</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.4957440189171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6159153118444</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.5450793519709</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.3539013357149</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.547404382326</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.2425178738398</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.4876602627736</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.8769913863509</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.97436160283756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.53622845765971</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345050441403368</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572284</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34874,7 +34874,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204527</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -35020,7 +35020,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.90656844127614</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>396.938828357998</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>577.6461122072595</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>567.9934337203664</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.381210660349</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.461027392703159</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.5355339299035</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1947764408137</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>631.7580004027079</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9418329344163</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.4943726531972</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.1448653688725</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.2940408945269</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.3471923433038</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.737913588083</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.0550816752305</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.0918542141661</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.1359981522305</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.6534001197288</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.2248292950707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>38.96144083416375</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.98177459656031</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.2262521930343</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.2059405721606</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.1289563138115</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.4860737149435</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.1325322963656</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.5210771387333</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.3256170110792</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962517</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1791318.610580617</v>
+        <v>1793079.787004119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445534.67060185</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>417425.6313448973</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10198635.24642481</v>
+        <v>10198424.60959211</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
+        <v>116.9725659584294</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>227.9187527607132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>173.3160116481447</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>10.18456372565612</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17.28688718947226</v>
       </c>
       <c r="S4" t="n">
-        <v>17.28688718947203</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="X5" t="n">
-        <v>66.67731766039418</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.837728992230831</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>28.24679925476115</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>162.7079352124036</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>376.9330483622919</v>
       </c>
       <c r="H8" t="n">
-        <v>171.4120023616842</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115227</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256496</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>112.5238885467973</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.678559685688</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1749784766143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7490107626452</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>196.4617660067195</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82823269715951</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0489563585645</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.05170797474857</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0422364341347</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.74238375877687</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>138.2893995353468</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>185.6920487814947</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.19779014108431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>35.88641949135547</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>670.3237564101299</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
-        <v>670.3237564101299</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="F2" t="n">
-        <v>403.946099842952</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4330,16 +4330,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4348,34 +4348,34 @@
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946887</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>670.3237564101299</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4409,52 +4409,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212814</v>
+        <v>879.7888415735551</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212814</v>
+        <v>879.7888415735551</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4497,7 +4497,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4506,13 +4506,13 @@
         <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="S4" t="n">
         <v>1037.394017794436</v>
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>300.438579740743</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>300.438579740743</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>833.193892875099</v>
       </c>
       <c r="X5" t="n">
-        <v>833.1938928750989</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>300.438579740743</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.5812722902314</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5812722902314</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>1026.32339954667</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>890.5040702965262</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>669.711491152996</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.265459468025</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="C8" t="n">
-        <v>1503.265459468025</v>
+        <v>1587.027095453809</v>
       </c>
       <c r="D8" t="n">
-        <v>1503.265459468025</v>
+        <v>1228.761396847059</v>
       </c>
       <c r="E8" t="n">
-        <v>1117.47720686978</v>
+        <v>842.9731442488146</v>
       </c>
       <c r="F8" t="n">
-        <v>706.4913020801728</v>
+        <v>431.987239459207</v>
       </c>
       <c r="G8" t="n">
-        <v>290.78508007184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467176</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999218</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729104</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468025</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.265459468025</v>
+        <v>1955.989612394221</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381371</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716191</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945921</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418491</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405881</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.1474381347627</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685579</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685579</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685579</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380178</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368928</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904048</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.679691249397</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1139.99520304351</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>850.5780330065498</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>622.5884821085325</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.7959029650024</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.731379301457</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7454745118498</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8006473127036</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814362</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.21173263691963</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>377.8919112275237</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.2947399039285</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1477.735160302608</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2205.32757490768</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2949.307003834344</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3638.490420549528</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4192.191521035109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4559.825241454979</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4688.265775907181</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4603.670815540872</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.224587251257</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.784320361562</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.721433017992</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.952777747877</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.487019486798</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.347687510986</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3595186577119</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9064893765849</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9720797153336</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7346247098782</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2000667367632</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.440298040527</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814362</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814362</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.76531551814362</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>427.5155625826338</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>922.6064982546577</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1519.711136425366</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2001.394112763709</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>1028.711695945288</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>859.7755130173814</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>709.6588736050456</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>561.7457800226525</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>414.8558325247421</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>247.658808737652</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>105.9387579168796</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.76531551814362</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>173.9372723687382</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.5212620398419</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>825.7851432062807</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1247.652809956954</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1664.924022934748</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2034.325229908149</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2326.891096275495</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.013457116464</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.013457116464</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.142511223398</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2043.537096101558</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1754.461819018376</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1499.777330812489</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1210.360160775528</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1210.360160775528</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1210.360160775528</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5188827892232</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>416.6057892068301</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>416.6057892068301</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>249.40968992171</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>107.6978587639081</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,49 +5734,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,13 +5977,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6208,49 +6208,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.9487421954783</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>491.0125592675714</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,25 +6712,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488567</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606599</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>733.7765431483241</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>585.863449565931</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680206</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>271.7774027829005</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>130.0655716250986</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603201</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397314</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360354</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462336</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318806</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7630,67 +7630,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140407</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821397</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.569396338528321</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>69.24165261647077</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.4163999908187</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>67.52345255978867</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>10.32607348286555</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>31.71340154579357</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>45.37941682721006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>900673.8875232445</v>
+        <v>900681.9533308957</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876831.7541419414</v>
+        <v>876586.4279118123</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544669.9127392782</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580807</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606917</v>
+        <v>506886.0326267327</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585.0966390506077</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101811</v>
+        <v>95382.64613756978</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132447.3436061352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>157.2049554781145</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608927</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9946.81056985587</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26459,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768861</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101072.4410767591</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-438370.5554677723</v>
+        <v>-438370.5554677724</v>
       </c>
       <c r="C6" t="n">
-        <v>241717.4251234204</v>
+        <v>241717.4251234208</v>
       </c>
       <c r="D6" t="n">
-        <v>-67437.73433626138</v>
+        <v>-67793.3519946184</v>
       </c>
       <c r="E6" t="n">
-        <v>-74502.33066997073</v>
+        <v>-73270.67998562173</v>
       </c>
       <c r="F6" t="n">
-        <v>433406.9013907208</v>
+        <v>433134.4460805915</v>
       </c>
       <c r="G6" t="n">
-        <v>433406.9013907209</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="H6" t="n">
-        <v>433406.9013907211</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="I6" t="n">
-        <v>433406.9013907209</v>
+        <v>433719.5427196425</v>
       </c>
       <c r="J6" t="n">
-        <v>364407.746971607</v>
+        <v>364720.3883005281</v>
       </c>
       <c r="K6" t="n">
-        <v>433406.9013907207</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="L6" t="n">
-        <v>338136.6635997029</v>
+        <v>338336.8965820723</v>
       </c>
       <c r="M6" t="n">
-        <v>300688.9256952525</v>
+        <v>301272.1991135071</v>
       </c>
       <c r="N6" t="n">
-        <v>433406.9013907211</v>
+        <v>433562.3377641641</v>
       </c>
       <c r="O6" t="n">
-        <v>433406.9013907209</v>
+        <v>433719.5427196426</v>
       </c>
       <c r="P6" t="n">
-        <v>433406.9013907211</v>
+        <v>433719.542719642</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.467948760089</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,34 +26792,34 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.066443976795</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>433.4030566425498</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.5075515815849485</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139511</v>
+        <v>531.4816118767565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6418441228533993</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27041,13 +27041,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841915</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>531.4816118767562</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228533993</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>531.4816118767565</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228533993</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>295.8616086872806</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>23.22941511756932</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>59.48457550128055</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>195.5884214778214</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>110.2177156941917</v>
       </c>
       <c r="S4" t="n">
-        <v>187.4322770541217</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>129.7959578577965</v>
       </c>
       <c r="X5" t="n">
-        <v>303.0537830180749</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.6954546576365</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>223.4481839061584</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663371</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>63.00172017663351</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>34.61465441066213</v>
       </c>
       <c r="H8" t="n">
-        <v>129.6214718586162</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164524166</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.72293255183052</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>47.54863008461635</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30759,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.497358587980253</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.29982363915278</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>211.9369169631089</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.5814384565895</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.2846274857937</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.5244153726945</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.2880661616883</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>980.9074362497873</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.2430767905586</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.5270366497959</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.652882217753</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.3234514022149</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.2710588236001</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06468721888357</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4397886870384202</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.941346153936796</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.40721153933695</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>474.9629006556623</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.6462339940398</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.2700320742484</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>617.8901730311545</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>699.8210737395146</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.63421474527333</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85568910292945</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935096153905787</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.465925809239505</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.92432219487488</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.15711433603894</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.340954713233</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.4957440189169</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.6159153118442</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.5450793519706</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.3539013357146</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.5474043823257</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2425178738396</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.4876602627734</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8769913863508</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.97436160283753</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5362284576597</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345050441403368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572284</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34874,7 +34874,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204527</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127614</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>396.938828357998</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203664</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.461027392703016</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.5355339299032</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.1947764408132</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>631.7580004027072</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>734.9418329344156</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.4943726531965</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.1448653688718</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.2940408945265</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.3471923433035</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.7379135880828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.1214616813033</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.0918542141656</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.1359981522301</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>486.5484609478212</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.2248292950702</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>80.9817745965602</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.226252193034</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.2059405721603</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.1289563138112</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.4860737149432</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.1325322963654</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.5210771387331</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.325617011079</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
